--- a/Orçamento/Orcamento.xlsx
+++ b/Orçamento/Orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.psouza27\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D2EE46-D59D-457B-8DE9-3121929B14D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DA77B26-129C-4BB4-A846-FF2C08F0C20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{0E51844B-1D00-4811-8A8C-F57E863D91F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Computadores</t>
   </si>
@@ -138,17 +138,30 @@
   </si>
   <si>
     <t>R$24.92</t>
+  </si>
+  <si>
+    <t>Impressora Multifuncional</t>
+  </si>
+  <si>
+    <t>Impressora HP Laser</t>
+  </si>
+  <si>
+    <t>https://www.kalunga.com.br/prod/impressora-multifuncional-tanque-de-tinta-smart-tank-517-1tj10a-color-wi-fi-conexao-usb-bivolt-hp-cx-1-un/213106?pcID=84?utm_source=paid_search&amp;utm_content=kalunga_hp&amp;utm_medium=pla&amp;utm_content=kalunga_hp&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Kalunga_BR_MIX_Print_ConsHW_CISS_Local_OPEX_Google_All_Smart-PLA_ROAS&amp;targetid=pla-1678689595881&amp;utm_term=&amp;matchtype=&amp;adid=515801921680&amp;addisttype=u&amp;gclid=CjwKCAjwvNaYBhA3EiwACgndgq9Ik0-HxRHYHbcndhnhRuoxca4QhfXOe2wySSmvrnSrfCbdS9qelBoCwVwQAvD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Impressora-Laser-Monocrom%C3%A1tica-HP-Branca/dp/B07S61ZJCS/ref=asc_df_B07S61ZJCS/?tag=googleshopp00-20&amp;linkCode=df0&amp;hvadid=379699119574&amp;hvpos=&amp;hvnetw=g&amp;hvrand=2465213770169722673&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=1001773&amp;hvtargid=pla-779928478246&amp;psc=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +210,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="9"/>
@@ -208,6 +228,12 @@
       <sz val="12"/>
       <color theme="9"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -233,7 +259,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -245,8 +271,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -563,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869BA3FB-9570-47CB-80E2-586AC3E8860A}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,9 +612,11 @@
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="25.140625" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+    <col min="12" max="12" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -614,8 +647,14 @@
       <c r="J1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -648,8 +687,14 @@
       <c r="J2">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -680,8 +725,14 @@
       <c r="J3" s="6">
         <v>27.43</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K3" s="9">
+        <v>1124.0999999999999</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1093.4100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -721,8 +772,14 @@
         <f>24*27.5</f>
         <v>660</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K4" s="10">
+        <v>1124.0999999999999</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1093.4100000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -746,7 +803,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -777,13 +834,19 @@
       <c r="J6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -797,7 +860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -811,7 +874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -828,7 +891,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -842,7 +905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -858,8 +921,10 @@
     <hyperlink ref="D6" r:id="rId2" xr:uid="{3D13FB8B-A204-420A-97DF-B42DF42D6D4F}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{D434B1C6-3564-42B0-B5CD-60A43D29574A}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{3BEC8715-A15A-43DC-915E-4FAFA6E710A4}"/>
+    <hyperlink ref="L6" r:id="rId5" display="https://www.kalunga.com.br/prod/impressora-multifuncional-tanque-de-tinta-smart-tank-517-1tj10a-color-wi-fi-conexao-usb-bivolt-hp-cx-1-un/213106?pcID=84?utm_source=paid_search&amp;utm_content=kalunga_hp&amp;utm_medium=pla&amp;utm_content=kalunga_hp&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Kalunga_BR_MIX_Print_ConsHW_CISS_Local_OPEX_Google_All_Smart-PLA_ROAS&amp;targetid=pla-1678689595881&amp;utm_term=&amp;matchtype=&amp;adid=515801921680&amp;addisttype=u&amp;gclid=CjwKCAjwvNaYBhA3EiwACgndgq9Ik0-HxRHYHbcndhnhRuoxca4QhfXOe2wySSmvrnSrfCbdS9qelBoCwVwQAvD_BwE&amp;gclsrc=aw.ds" xr:uid="{1F379569-6F75-4E1A-973C-28A380F92EC4}"/>
+    <hyperlink ref="K6" r:id="rId6" display="https://www.amazon.com.br/Impressora-Laser-Monocrom%C3%A1tica-HP-Branca/dp/B07S61ZJCS/ref=asc_df_B07S61ZJCS/?tag=googleshopp00-20&amp;linkCode=df0&amp;hvadid=379699119574&amp;hvpos=&amp;hvnetw=g&amp;hvrand=2465213770169722673&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=1001773&amp;hvtargid=pla-779928478246&amp;psc=1" xr:uid="{CFEDE629-5E5A-4A73-BA16-99A85986E7D2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Orçamento/Orcamento.xlsx
+++ b/Orçamento/Orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.psouza27\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DA77B26-129C-4BB4-A846-FF2C08F0C20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD91D691-57CB-4E51-9F2C-EC573563BAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{0E51844B-1D00-4811-8A8C-F57E863D91F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Computadores</t>
   </si>
@@ -594,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869BA3FB-9570-47CB-80E2-586AC3E8860A}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,6 +915,15 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B10:D10)</f>
+        <v>6960</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" xr:uid="{7206CC80-3770-427C-9C31-E1953DD27B95}"/>
